--- a/IMPORTANT/KUMAR OLD.xlsx
+++ b/IMPORTANT/KUMAR OLD.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>468</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/KUMAR OLD.xlsx
+++ b/IMPORTANT/KUMAR OLD.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>594</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>591</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>494</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>489</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>459</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>406</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>345</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>303</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>287</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>185</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>182</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>46</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
